--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arexdata\qa-automation\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\ArexdataAutomation\qa-automation-master\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9564CCA-F1C4-439E-9300-622DC86EEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC5E7B-6453-46A9-A018-69FF7C74F540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin_Alert" sheetId="1" r:id="rId1"/>
@@ -664,18 +664,18 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -712,7 +712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -804,7 +804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -826,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -857,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -902,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -913,7 +913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -944,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -955,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -992,17 +992,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>70</v>
       </c>
@@ -1056,12 +1056,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>72</v>
       </c>
@@ -1084,17 +1084,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>58</v>
       </c>
